--- a/Java learn/Java学习截图/常量表.xlsx
+++ b/Java learn/Java学习截图/常量表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\新建文件夹\Java--1\Java learn\Java学习截图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Study\Java--1\Java learn\Java学习截图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FD2CAF-B99A-4833-98C7-65B9C699113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698CB0EE-6F9A-422B-B13B-AB37E322384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{EF20BB89-4C9E-43EB-83B3-D1B1B198ED9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EF20BB89-4C9E-43EB-83B3-D1B1B198ED9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="170">
   <si>
     <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -645,6 +645,54 @@
   </si>
   <si>
     <t>= *= /= %= += -= &lt;&lt;= &gt;&gt;= &gt;&gt;&gt;= &amp;= ^= |=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同数据类型的数组元素的默认初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte、short、int、long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float、double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个空字符，即‘\u0000’</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null，表示变量不引用任何对象</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,79 +925,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,30 +1123,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1087,6 +1159,70 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
         <vertical style="thin">
           <color auto="1"/>
         </vertical>
@@ -1118,6 +1254,58 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1182,6 +1370,27 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color auto="1"/>
@@ -1189,30 +1398,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1234,143 +1443,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1426,13 +1498,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1451,10 +1516,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1515,13 +1581,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1535,6 +1594,19 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1550,19 +1622,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBECBDD5-EC6C-414D-8EED-1462D9270287}" name="表1" displayName="表1" ref="A2:C6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBECBDD5-EC6C-414D-8EED-1462D9270287}" name="表1" displayName="表1" ref="A2:C6" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A2:C6" xr:uid="{DBECBDD5-EC6C-414D-8EED-1462D9270287}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{75097086-4C33-4375-8F21-A518D17B34CB}" name="类型" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{C2FD6B7A-EF44-4BDC-8D4C-A65A2DD0AA3F}" name="占用空间" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{A315003F-5A64-480A-8D64-4BB02E1AB326}" name="取值范围" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{75097086-4C33-4375-8F21-A518D17B34CB}" name="类型" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C2FD6B7A-EF44-4BDC-8D4C-A65A2DD0AA3F}" name="占用空间" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{A315003F-5A64-480A-8D64-4BB02E1AB326}" name="取值范围" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A852ED90-2B4D-4A76-AF92-D151A132C056}" name="表1_3" displayName="表1_3" ref="A9:C11" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A852ED90-2B4D-4A76-AF92-D151A132C056}" name="表1_3" displayName="表1_3" ref="A9:C11" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="A9:C11" xr:uid="{A852ED90-2B4D-4A76-AF92-D151A132C056}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A6EF09F5-315A-48B8-939B-12628B1D013D}" name="类型" dataDxfId="29"/>
@@ -1574,33 +1646,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCCB47CD-58D4-4B4A-B37A-A0B4796A954F}" name="表1_35" displayName="表1_35" ref="A14:D25" totalsRowShown="0" headerRowDxfId="19" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCCB47CD-58D4-4B4A-B37A-A0B4796A954F}" name="表1_35" displayName="表1_35" ref="A14:D25" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A14:D25" xr:uid="{DCCB47CD-58D4-4B4A-B37A-A0B4796A954F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DDE4D081-B2C8-4014-A0A1-FF4A04F8C55D}" name="运算符" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{604730A1-0E82-4632-9B9D-87261A361C79}" name="运算" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{AC08604C-30A1-4FB0-8931-7E087E5714A4}" name="范例" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{297E9906-61B7-4498-9F64-E2B3F97EA7A8}" name="结果" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{DDE4D081-B2C8-4014-A0A1-FF4A04F8C55D}" name="运算符" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{604730A1-0E82-4632-9B9D-87261A361C79}" name="运算" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{AC08604C-30A1-4FB0-8931-7E087E5714A4}" name="范例" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{297E9906-61B7-4498-9F64-E2B3F97EA7A8}" name="结果" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{97DFCA8B-775D-459C-9AB9-A0EDD47097E5}" name="表1_356" displayName="表1_356" ref="A28:D34" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{97DFCA8B-775D-459C-9AB9-A0EDD47097E5}" name="表1_356" displayName="表1_356" ref="A28:D34" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A28:D34" xr:uid="{97DFCA8B-775D-459C-9AB9-A0EDD47097E5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2043F73A-CD5D-49F9-ABEC-8F4C1C7F1469}" name="运算符" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{7F99B5D2-F0D5-4EC7-89F3-1A7DBC295F6F}" name="运算" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F6DB304D-8A60-4003-A55E-2AC63AA1A47C}" name="范例" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{CF635B59-E081-41B0-B237-62FD7806E010}" name="结果" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{2043F73A-CD5D-49F9-ABEC-8F4C1C7F1469}" name="运算符" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7F99B5D2-F0D5-4EC7-89F3-1A7DBC295F6F}" name="运算" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F6DB304D-8A60-4003-A55E-2AC63AA1A47C}" name="范例" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{CF635B59-E081-41B0-B237-62FD7806E010}" name="结果" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB2B6FCE-3D79-4E55-8623-ABDD8F4C0218}" name="表1_3567" displayName="表1_3567" ref="A37:D43" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB2B6FCE-3D79-4E55-8623-ABDD8F4C0218}" name="表1_3567" displayName="表1_3567" ref="A37:D43" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A37:D43" xr:uid="{BB2B6FCE-3D79-4E55-8623-ABDD8F4C0218}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2ED13A06-41DD-4BF9-84CF-A90187AF3C14}" name="运算符" dataDxfId="3"/>
@@ -1909,25 +1981,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6A83D0-A808-410C-BD19-B42F416D05ED}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.58203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.5546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1949,7 +2021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1960,7 +2032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1982,14 +2054,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2011,7 +2083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -2022,15 +2094,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2044,169 +2116,169 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="6">
         <v>-4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2220,99 +2292,99 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -2326,521 +2398,619 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D38" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D41" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="26" t="b">
+      <c r="D47" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="30" t="s">
+    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="16" t="b">
+      <c r="D48" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="25" t="s">
+    <row r="49" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="16" t="b">
+      <c r="D49" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="30" t="s">
+    <row r="50" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="16" t="b">
+      <c r="D50" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="26" t="b">
+      <c r="D51" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="30" t="s">
+    <row r="52" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="16" t="b">
+      <c r="D52" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="25" t="s">
+    <row r="53" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="16" t="b">
+      <c r="D53" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="30" t="s">
+    <row r="54" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="16" t="b">
+      <c r="D54" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+    <row r="55" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="16" t="b">
+      <c r="D55" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="30" t="s">
+    <row r="56" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="16" t="b">
+      <c r="D56" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="25" t="s">
+    <row r="57" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="16" t="b">
+      <c r="D57" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="30" t="s">
+    <row r="58" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="16" t="b">
+      <c r="D58" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="16" t="b">
+      <c r="D59" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="27" t="s">
+    <row r="60" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="16" t="b">
+      <c r="D60" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+    <row r="61" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="26" t="b">
+      <c r="D61" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="30" t="s">
+    <row r="62" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="16" t="b">
+      <c r="D62" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="25" t="s">
+    <row r="63" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="16" t="b">
+      <c r="D63" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="30" t="s">
+    <row r="64" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="16" t="b">
+      <c r="D64" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
+    <row r="65" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="26" t="b">
+      <c r="D65" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="27" t="s">
+    <row r="66" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="16" t="b">
+      <c r="D66" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="25" t="s">
+    <row r="67" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="16" t="b">
+      <c r="D67" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="27" t="s">
+    <row r="68" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D68" s="16" t="b">
+      <c r="D68" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+    </row>
+    <row r="71" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-    </row>
-    <row r="72" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-    </row>
-    <row r="73" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+    </row>
+    <row r="73" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-    </row>
-    <row r="74" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+    </row>
+    <row r="74" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-    </row>
-    <row r="75" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-    </row>
-    <row r="76" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-    </row>
-    <row r="77" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-    </row>
-    <row r="78" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+    </row>
+    <row r="78" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-    </row>
-    <row r="79" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-    </row>
-    <row r="80" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+    </row>
+    <row r="80" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-    </row>
-    <row r="81" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="25" t="s">
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-    </row>
-    <row r="82" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+    </row>
+    <row r="82" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-    </row>
-    <row r="83" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="25" t="s">
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-    </row>
-    <row r="84" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="25" t="s">
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="33" t="s">
+      <c r="B84" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-    </row>
-    <row r="85" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+    </row>
+    <row r="85" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="87" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+    </row>
+    <row r="88" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="35"/>
+    </row>
+    <row r="89" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="37"/>
+      <c r="C89" s="38">
+        <v>0</v>
+      </c>
+      <c r="D89" s="39"/>
+    </row>
+    <row r="90" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="41"/>
+      <c r="C90" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="41"/>
+    </row>
+    <row r="91" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="37"/>
+    </row>
+    <row r="92" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="41"/>
+      <c r="C92" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="41"/>
+    </row>
+    <row r="93" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
+  <mergeCells count="47">
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
@@ -2848,28 +3018,11 @@
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
